--- a/Time Tracking/CEIS400- WEEK 5 Anaum Syed Time Sheet.xlsx
+++ b/Time Tracking/CEIS400- WEEK 5 Anaum Syed Time Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15b881ec34b0dbf0/Desktop/CEIS400/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d037e0306ecfb5d/Desktop/repos_cloned_here_laptop/silver-goggles/Time Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{776F990E-B499-4D0D-9A85-0A01D36AC79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="-14280" windowWidth="18570" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -1078,21 +1078,21 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
@@ -1110,21 +1110,21 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1172,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>45349</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>45350</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>45357</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>45364</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>45378</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1326,7 +1326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1378,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1430,7 +1430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1482,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A47:C47"/>
@@ -1645,18 +1645,18 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -1674,21 +1674,21 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
@@ -1710,14 +1710,14 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1798,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1850,7 +1850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1902,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2006,7 +2006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A47:C47"/>
@@ -2170,18 +2170,18 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -2199,21 +2199,21 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
@@ -2235,14 +2235,14 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2271,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2323,7 +2323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2375,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2531,7 +2531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A47:C47"/>
@@ -2695,18 +2695,18 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -2724,21 +2724,21 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
@@ -2760,14 +2760,14 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2796,7 +2796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2848,7 +2848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2900,7 +2900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2952,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3004,7 +3004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3056,7 +3056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A47:C47"/>
